--- a/RAS09-SOFS7.5/RAS9_SOFS7.5.xlsx
+++ b/RAS09-SOFS7.5/RAS9_SOFS7.5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pete/cloudstor/Shared/RAS_QCd_final_formatted/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sha359/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD27552-9D22-9D4B-9E42-B60834CDA9D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9DDF362-93F2-104A-B01E-CC175219A756}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8580" yWindow="2900" windowWidth="35280" windowHeight="23500" firstSheet="6" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="680" yWindow="1020" windowWidth="25660" windowHeight="14380" firstSheet="6" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="startup" sheetId="1" r:id="rId1"/>
@@ -34,17 +34,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="14">netcdf!$A$1:$AC$12</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="10">phytoplankton!$A$64:$I$100</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -4109,7 +4099,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4998,7 +4988,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5945,7 +5935,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8497,7 +8487,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -9745,7 +9735,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -10557,7 +10547,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -11202,7 +11192,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -12008,7 +11998,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -12460,7 +12450,7 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -15741,7 +15731,7 @@
       <c r="A13" s="7"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D21">
+  <sortState ref="A3:D21">
     <sortCondition descending="1" ref="A3:A21"/>
     <sortCondition ref="B3:B21"/>
   </sortState>
@@ -19085,8 +19075,8 @@
   </sheetPr>
   <dimension ref="A1:AB35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:C34"/>
+    <sheetView tabSelected="1" topLeftCell="W9" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="AA11" sqref="AA11:AA34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -19634,14 +19624,14 @@
         <v>2295.6399650871836</v>
       </c>
       <c r="Y11" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z11" s="259">
         <f>'CO2'!K4</f>
         <v>2387.7871216670392</v>
       </c>
       <c r="AA11" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:28" s="9" customFormat="1">
@@ -19713,14 +19703,14 @@
         <v>2292.560688787908</v>
       </c>
       <c r="Y12" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z12" s="259">
         <f>'CO2'!K5</f>
         <v>2443.6173446767621</v>
       </c>
       <c r="AA12" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:28" s="9" customFormat="1">
@@ -19792,14 +19782,14 @@
         <v>2289.4938816418339</v>
       </c>
       <c r="Y13" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z13" s="259">
         <f>'CO2'!K6</f>
         <v>2344.1463314944381</v>
       </c>
       <c r="AA13" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:28" s="9" customFormat="1">
@@ -19871,14 +19861,14 @@
         <v>2289.0126854455866</v>
       </c>
       <c r="Y14" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z14" s="259">
         <f>'CO2'!K7</f>
         <v>2429.9187349619174</v>
       </c>
       <c r="AA14" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:28" s="9" customFormat="1">
@@ -19950,14 +19940,14 @@
         <v>2290.1146420625987</v>
       </c>
       <c r="Y15" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z15" s="259">
         <f>'CO2'!K8</f>
         <v>2393.6867298354746</v>
       </c>
       <c r="AA15" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:28" s="9" customFormat="1">
@@ -20029,14 +20019,14 @@
         <v>2226.7720016758035</v>
       </c>
       <c r="Y16" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Z16" s="259">
         <f>'CO2'!K9</f>
         <v>2294.976196402542</v>
       </c>
       <c r="AA16" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:27" s="9" customFormat="1">
@@ -20108,14 +20098,14 @@
         <v>2288.9258750039785</v>
       </c>
       <c r="Y17" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z17" s="259">
         <f>'CO2'!K10</f>
         <v>2145.909037989547</v>
       </c>
       <c r="AA17" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:27" s="9" customFormat="1">
@@ -20187,14 +20177,14 @@
         <v>2284.9938640878017</v>
       </c>
       <c r="Y18" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z18" s="259">
         <f>'CO2'!K11</f>
         <v>2374.6793167702226</v>
       </c>
       <c r="AA18" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:27" s="9" customFormat="1">
@@ -20266,14 +20256,14 @@
         <v>2239.6510492065008</v>
       </c>
       <c r="Y19" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Z19" s="259">
         <f>'CO2'!K12</f>
         <v>2265.150196657175</v>
       </c>
       <c r="AA19" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:27" s="9" customFormat="1">
@@ -20345,14 +20335,14 @@
         <v>2241.6479764806868</v>
       </c>
       <c r="Y20" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Z20" s="259">
         <f>'CO2'!K13</f>
         <v>2349.2419499465027</v>
       </c>
       <c r="AA20" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:27" s="9" customFormat="1">
@@ -20424,14 +20414,14 @@
         <v>2226.8458932863755</v>
       </c>
       <c r="Y21" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Z21" s="259">
         <f>'CO2'!K14</f>
         <v>2363.8088924981057</v>
       </c>
       <c r="AA21" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:27" s="9" customFormat="1">
@@ -20503,14 +20493,14 @@
         <v>2283.5106037632418</v>
       </c>
       <c r="Y22" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z22" s="259">
         <f>'CO2'!K15</f>
         <v>2216.9883473645787</v>
       </c>
       <c r="AA22" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:27" s="9" customFormat="1">
@@ -20582,14 +20572,14 @@
         <v>2238.9570118156512</v>
       </c>
       <c r="Y23" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Z23" s="259">
         <f>'CO2'!K16</f>
         <v>2310.0552240462953</v>
       </c>
       <c r="AA23" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:27" s="9" customFormat="1">
@@ -20661,14 +20651,14 @@
         <v>2229.651234621444</v>
       </c>
       <c r="Y24" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Z24" s="259">
         <f>'CO2'!K17</f>
         <v>2248.4043959485525</v>
       </c>
       <c r="AA24" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:27" s="9" customFormat="1">
@@ -20740,14 +20730,14 @@
         <v>2247.2471534611436</v>
       </c>
       <c r="Y25" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Z25" s="259">
         <f>'CO2'!K18</f>
         <v>2295.4435626274376</v>
       </c>
       <c r="AA25" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:27" s="9" customFormat="1">
@@ -20819,14 +20809,14 @@
         <v>2276.3523134037114</v>
       </c>
       <c r="Y26" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z26" s="259">
         <f>'CO2'!K19</f>
         <v>2340.9155402120477</v>
       </c>
       <c r="AA26" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:27" s="9" customFormat="1">
@@ -20898,14 +20888,14 @@
         <v>2287.9735847394786</v>
       </c>
       <c r="Y27" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z27" s="259">
         <f>'CO2'!K20</f>
         <v>2208.8091429727433</v>
       </c>
       <c r="AA27" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:27" s="9" customFormat="1">
@@ -20977,14 +20967,14 @@
         <v>2247.4052764840085</v>
       </c>
       <c r="Y28" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Z28" s="259">
         <f>'CO2'!K21</f>
         <v>2174.2773472818462</v>
       </c>
       <c r="AA28" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:27" s="9" customFormat="1">
@@ -21056,14 +21046,14 @@
         <v>2293.8819239321915</v>
       </c>
       <c r="Y29" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z29" s="259">
         <f>'CO2'!K22</f>
         <v>2238.4411122258671</v>
       </c>
       <c r="AA29" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:27" s="9" customFormat="1">
@@ -21135,14 +21125,14 @@
         <v>2284.4799427673188</v>
       </c>
       <c r="Y30" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z30" s="259">
         <f>'CO2'!K23</f>
         <v>2259.5780746842079</v>
       </c>
       <c r="AA30" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:27" s="9" customFormat="1">
@@ -21214,14 +21204,14 @@
         <v>2234.3563412980579</v>
       </c>
       <c r="Y31" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Z31" s="259">
         <f>'CO2'!K24</f>
         <v>2217.5191567661914</v>
       </c>
       <c r="AA31" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:27" s="9" customFormat="1">
@@ -21293,7 +21283,7 @@
         <v>2255.2434432172636</v>
       </c>
       <c r="Y32" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Z32" s="259">
         <f>'CO2'!K25</f>
@@ -21372,7 +21362,7 @@
         <v>2287.7805167313754</v>
       </c>
       <c r="Y33" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z33" s="259">
         <f>'CO2'!K26</f>
@@ -21451,14 +21441,14 @@
         <v>2287.7640270970824</v>
       </c>
       <c r="Y34" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z34" s="259">
         <f>'CO2'!K27</f>
         <v>2136.6180874423453</v>
       </c>
       <c r="AA34" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:27">
@@ -24678,7 +24668,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D2:N50">
+  <sortState ref="D2:N50">
     <sortCondition ref="N2:N50"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -27624,7 +27614,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A100:B123">
+  <sortState ref="A100:B123">
     <sortCondition ref="A100:A123"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
